--- a/dictionary_recommended_tracks.xlsx
+++ b/dictionary_recommended_tracks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leepi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leepi\Downloads\Presentation Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92701614-6E3F-47E3-8DF5-C15DE63A1CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADFA89A-ABD6-4BD4-9563-D7E77667567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35580" yWindow="1965" windowWidth="21600" windowHeight="11235"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dict_recommended_tracks" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>a confidence measure from 0.0 to 1.0 of whether the track is acoustic. 1.0 represents high confidence the track is acoustic.</t>
   </si>
   <si>
-    <t>Spotify ID for the track</t>
-  </si>
-  <si>
     <t>overall loudness of a track in decibels (dB)</t>
   </si>
   <si>
@@ -212,12 +209,15 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Spotify ID for the track, primary key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1074,11 +1074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1132,16 +1132,16 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1164,10 +1164,10 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1190,10 +1190,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1201,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1216,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1242,10 +1242,10 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1253,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1268,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1279,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1305,13 +1305,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1320,10 +1320,10 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1331,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1346,10 +1346,10 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1372,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -1383,13 +1383,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1398,10 +1398,10 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1409,13 +1409,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -1424,10 +1424,10 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1435,13 +1435,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1450,10 +1450,10 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1461,13 +1461,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1476,10 +1476,10 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1502,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
@@ -1513,7 +1513,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1528,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -1539,7 +1539,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1565,7 +1565,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1580,10 +1580,10 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1591,25 +1591,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1632,10 +1632,10 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1658,10 +1658,10 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
